--- a/results/mop/pareto_over_cap.xlsx
+++ b/results/mop/pareto_over_cap.xlsx
@@ -850,10 +850,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.3619736628863608E-2"/>
+          <c:x val="7.1358085691471812E-2"/>
           <c:y val="2.5507246376811593E-2"/>
-          <c:w val="0.82957926000664062"/>
-          <c:h val="0.8658590893529613"/>
+          <c:w val="0.90786521263221642"/>
+          <c:h val="0.82411995891817869"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -4219,8 +4219,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.0563510207114408E-2"/>
-                  <c:y val="-3.2463768115942114E-2"/>
+                  <c:x val="-4.9981022090694209E-2"/>
+                  <c:y val="-3.2463857994932635E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -4228,7 +4228,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A08FCF62-BB91-4D99-9D05-3F5C6DCF2695}" type="CELLRANGE">
+                    <a:fld id="{17AB31AA-6E0B-4CE7-81CF-D37C50A811CC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4258,9 +4258,7 @@
               <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4270,9 +4268,7 @@
               <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4282,9 +4278,7 @@
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000015-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4294,9 +4288,7 @@
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4306,9 +4298,7 @@
               <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000017-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4318,9 +4308,7 @@
               <c:idx val="6"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000018-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4330,9 +4318,7 @@
               <c:idx val="7"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000019-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4342,9 +4328,7 @@
               <c:idx val="8"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001A-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4354,9 +4338,7 @@
               <c:idx val="9"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001B-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4366,9 +4348,7 @@
               <c:idx val="10"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001C-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4378,9 +4358,7 @@
               <c:idx val="11"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001D-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4390,9 +4368,7 @@
               <c:idx val="12"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001E-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4402,9 +4378,7 @@
               <c:idx val="13"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001F-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4426,9 +4400,7 @@
               <c:idx val="15"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000021-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4438,9 +4410,7 @@
               <c:idx val="16"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000022-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4474,8 +4444,8 @@
               <c:idx val="19"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="5.7306581638339521E-3"/>
-                  <c:y val="-3.2463768115942114E-2"/>
+                  <c:x val="-8.8324043564972556E-3"/>
+                  <c:y val="-3.7851064524735974E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -4483,7 +4453,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{73033E8D-AD18-4B8F-9094-60B58DAD2607}" type="CELLRANGE">
+                    <a:fld id="{99E8AD9B-4A24-4896-BAE1-802C3B415453}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4513,9 +4483,7 @@
               <c:idx val="20"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000026-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4561,7 +4529,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -4844,9 +4811,7 @@
               <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4856,9 +4821,7 @@
               <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4868,9 +4831,7 @@
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000027-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4880,9 +4841,7 @@
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000028-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4892,9 +4851,7 @@
               <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000029-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4904,9 +4861,7 @@
               <c:idx val="6"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000002A-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4916,9 +4871,7 @@
               <c:idx val="7"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000002B-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4928,9 +4881,7 @@
               <c:idx val="8"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000002C-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4940,9 +4891,7 @@
               <c:idx val="9"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000002D-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4952,9 +4901,7 @@
               <c:idx val="10"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000002E-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -5000,9 +4947,7 @@
               <c:idx val="12"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000030-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -5012,9 +4957,7 @@
               <c:idx val="13"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000031-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -5036,9 +4979,7 @@
               <c:idx val="15"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000033-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -5048,9 +4989,7 @@
               <c:idx val="16"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000034-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -5060,8 +4999,8 @@
               <c:idx val="17"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.0506206633695614E-2"/>
-                  <c:y val="5.1014492753623103E-2"/>
+                  <c:x val="-1.8596822184443362E-2"/>
+                  <c:y val="6.1788925854646279E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5069,7 +5008,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C6F47FFB-20A4-4175-9666-86F11C392648}" type="CELLRANGE">
+                    <a:fld id="{6974E0F7-4709-45DF-A787-19D956466C9A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5109,7 +5048,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3CF2283A-195D-4193-9C18-35640DC33F67}" type="CELLRANGE">
+                    <a:fld id="{61F5E183-B6BE-4853-9909-01C989465572}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5140,8 +5079,8 @@
               <c:idx val="19"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.1967522961363482E-2"/>
-                  <c:y val="4.1739130434782612E-2"/>
+                  <c:x val="-2.5203733812875394E-2"/>
+                  <c:y val="4.4432788659887937E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5149,7 +5088,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{71FA3967-676B-4726-9B40-D7C1DCCF413A}" type="CELLRANGE">
+                    <a:fld id="{559AF942-AA94-405C-AA80-973C36DD0616}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5180,9 +5119,7 @@
               <c:idx val="20"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000038-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -5229,7 +5166,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -5509,7 +5445,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{81D11A88-5F3F-42FE-93DC-DDF296254284}" type="CELLRANGE">
+                    <a:fld id="{383CB41E-D3A4-4285-8ECB-8C1810562249}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5541,9 +5477,7 @@
               <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -5553,9 +5487,7 @@
               <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -5565,9 +5497,7 @@
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000039-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -5577,9 +5507,7 @@
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000003A-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -5589,9 +5517,7 @@
               <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000003B-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -5601,9 +5527,7 @@
               <c:idx val="6"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000003C-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -5613,9 +5537,7 @@
               <c:idx val="7"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000003D-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -5625,9 +5547,7 @@
               <c:idx val="8"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000003E-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -5637,9 +5557,7 @@
               <c:idx val="9"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000003F-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -5649,9 +5567,7 @@
               <c:idx val="10"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000040-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -5661,9 +5577,7 @@
               <c:idx val="11"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000041-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -5673,9 +5587,7 @@
               <c:idx val="12"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000042-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -5685,9 +5597,7 @@
               <c:idx val="13"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000043-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -5718,7 +5628,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7287BC86-92D1-4207-AAEB-F9FCEB32034D}" type="CELLRANGE">
+                    <a:fld id="{EAF8F0CB-8E21-497B-B36A-E19BB492144A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5759,7 +5669,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{84A67897-048C-4283-BFA8-ACC736814DCF}" type="CELLRANGE">
+                    <a:fld id="{DDF8B913-1CF4-4F50-9F5C-C40B4877EFA0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5800,7 +5710,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DDF683A0-8450-4830-B994-9ABAD03E4367}" type="CELLRANGE">
+                    <a:fld id="{5DBF8D81-C013-418B-BB81-96B8C042908A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5841,7 +5751,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{88B3A7AB-6A51-4269-A015-99516826D3F6}" type="CELLRANGE">
+                    <a:fld id="{5427D5FC-289D-420D-837B-A94D4A112A6A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5882,7 +5792,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5124B820-B453-4965-A24E-3AEC095B99BD}" type="CELLRANGE">
+                    <a:fld id="{C2031DBF-0EBB-4A73-A7E4-55A44E739B37}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5914,9 +5824,7 @@
               <c:idx val="20"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000049-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -5964,7 +5872,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -6247,9 +6154,7 @@
               <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000010-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -6259,9 +6164,7 @@
               <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000E-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -6271,9 +6174,7 @@
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000004A-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -6283,9 +6184,7 @@
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000004B-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -6295,9 +6194,7 @@
               <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000004C-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -6307,9 +6204,7 @@
               <c:idx val="6"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000004D-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -6354,9 +6249,7 @@
               <c:idx val="8"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000004F-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -6366,9 +6259,7 @@
               <c:idx val="9"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000050-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -6378,9 +6269,7 @@
               <c:idx val="10"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000051-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -6390,9 +6279,7 @@
               <c:idx val="11"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000052-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -6402,9 +6289,7 @@
               <c:idx val="12"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000053-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -6423,7 +6308,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FE07D311-CD27-4CB8-902B-8F2F8F3ADED3}" type="CELLRANGE">
+                    <a:fld id="{0A7507A7-159F-4A7A-AFB5-618A77839693}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6453,8 +6338,8 @@
               <c:idx val="14"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.1967522961363482E-2"/>
-                  <c:y val="-6.4927536231884062E-2"/>
+                  <c:x val="-2.843998017990217E-2"/>
+                  <c:y val="-6.4927503895120045E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -6462,7 +6347,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1EFE55BE-87DF-4706-BAEA-AC8205183A2B}" type="CELLRANGE">
+                    <a:fld id="{CD3A7CE2-81BE-43DE-B2EE-61086C4148FD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6501,7 +6386,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{45350409-3BF8-46AA-A4E6-B10FCD905FC0}" type="CELLRANGE">
+                    <a:fld id="{4E9813CE-4507-4211-92C4-1A2649B8B02C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6540,7 +6425,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{83A60F6E-D131-4BEC-8487-FDE285DCC787}" type="CELLRANGE">
+                    <a:fld id="{9061E48A-FDC9-4AD7-A685-E4327BEF705F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6603,7 +6488,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F485763C-1551-463A-97C0-D249A0839CCB}" type="CELLRANGE">
+                    <a:fld id="{F9539DDA-2AA9-4295-9BF6-F619F26B0E95}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6633,9 +6518,7 @@
               <c:idx val="20"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000005B-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -6683,7 +6566,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -6963,7 +6845,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6395538E-7292-4399-9E80-BE487F69DDBA}" type="CELLRANGE">
+                    <a:fld id="{A5827DE2-6063-4159-96E6-D2E0698A896A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6994,9 +6876,7 @@
               <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000011-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -7006,9 +6886,7 @@
               <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000D-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -7018,9 +6896,7 @@
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000005C-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -7030,9 +6906,7 @@
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000005D-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -7042,9 +6916,7 @@
               <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000005E-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -7054,9 +6926,7 @@
               <c:idx val="6"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000005F-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -7066,9 +6936,7 @@
               <c:idx val="7"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000060-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -7078,9 +6946,7 @@
               <c:idx val="8"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000061-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -7090,9 +6956,7 @@
               <c:idx val="9"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000062-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -7102,9 +6966,7 @@
               <c:idx val="10"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000063-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -7123,7 +6985,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A90C2CCD-13B2-4CA9-9A41-5B9430918F2D}" type="CELLRANGE">
+                    <a:fld id="{95B3D921-BB82-4363-BEC0-3C4F3F8FD248}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7163,7 +7025,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{762AA0ED-82F9-4D08-9366-AF2C61C1DA4E}" type="CELLRANGE">
+                    <a:fld id="{0912BC63-D6E0-44F4-9A11-F005A482E3C8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7203,7 +7065,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F3A200B0-0723-4D86-A0F7-04CA0087A6FC}" type="CELLRANGE">
+                    <a:fld id="{411E6466-1990-4171-89E9-25FED99FE7C3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7246,9 +7108,7 @@
               <c:idx val="15"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000068-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -7258,9 +7118,7 @@
               <c:idx val="16"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000069-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -7279,7 +7137,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D44451D7-E1B4-4486-AC0A-8F8BE01DF0D7}" type="CELLRANGE">
+                    <a:fld id="{CB45921D-75BF-4E5C-8104-CE795C33E3F0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7310,8 +7168,8 @@
               <c:idx val="18"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.6411191118051408E-2"/>
-                  <c:y val="4.2915896382517402E-2"/>
+                  <c:x val="7.8606385674691755E-3"/>
+                  <c:y val="-2.1730591315907911E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -7319,7 +7177,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{91069C6E-4BBF-4D54-B6C2-7DB49A111543}" type="CELLRANGE">
+                    <a:fld id="{77795492-9889-41D3-AB11-161C133E29BE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7359,7 +7217,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DF642436-C7FB-4A3C-A905-2B50CA3BABEC}" type="CELLRANGE">
+                    <a:fld id="{376ACB4B-59A1-4A85-8816-A8D6BF51E2C8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7390,9 +7248,7 @@
               <c:idx val="20"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000006C-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -7439,7 +7295,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -7938,7 +7793,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:legendEntry>
         <c:idx val="5"/>
         <c:delete val="1"/>
@@ -8586,16 +8441,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8882,8 +8737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8976,43 +8831,43 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$A4)</f>
+        <f t="shared" ref="D4:D24" ca="1" si="0">INDIRECT(""&amp;D$1&amp;"!"&amp;$A4)</f>
         <v>102.643540931191</v>
       </c>
       <c r="E4">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$B4)</f>
+        <f t="shared" ref="E4:E24" ca="1" si="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$B4)</f>
         <v>0.10220983245904509</v>
       </c>
       <c r="F4">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$A4)</f>
+        <f t="shared" ref="F4:F24" ca="1" si="2">INDIRECT(""&amp;F$1&amp;"!"&amp;$A4)</f>
         <v>95.172099552100306</v>
       </c>
       <c r="G4">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$B4)</f>
+        <f t="shared" ref="G4:G24" ca="1" si="3">INDIRECT(""&amp;F$1&amp;"!"&amp;$B4)</f>
         <v>0.32515153431908511</v>
       </c>
       <c r="H4">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$A4)</f>
+        <f t="shared" ref="H4:H24" ca="1" si="4">INDIRECT(""&amp;H$1&amp;"!"&amp;$A4)</f>
         <v>86.929024471975794</v>
       </c>
       <c r="I4">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$B4)</f>
+        <f t="shared" ref="I4:I24" ca="1" si="5">INDIRECT(""&amp;H$1&amp;"!"&amp;$B4)</f>
         <v>0.44575923713376997</v>
       </c>
       <c r="J4">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$A4)</f>
+        <f t="shared" ref="J4:J24" ca="1" si="6">INDIRECT(""&amp;J$1&amp;"!"&amp;$A4)</f>
         <v>80.063394990264001</v>
       </c>
       <c r="K4">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$B4)</f>
+        <f t="shared" ref="K4:K24" ca="1" si="7">INDIRECT(""&amp;J$1&amp;"!"&amp;$B4)</f>
         <v>0.50838688685656819</v>
       </c>
       <c r="L4">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$A4)</f>
+        <f t="shared" ref="L4:L24" ca="1" si="8">INDIRECT(""&amp;L$1&amp;"!"&amp;$A4)</f>
         <v>70.723784293225293</v>
       </c>
       <c r="M4">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$B4)</f>
+        <f t="shared" ref="M4:M24" ca="1" si="9">INDIRECT(""&amp;L$1&amp;"!"&amp;$B4)</f>
         <v>0.58200452941344505</v>
       </c>
     </row>
@@ -9027,43 +8882,43 @@
         <v>0.05</v>
       </c>
       <c r="D5">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$A5)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>102.643540931191</v>
       </c>
       <c r="E5">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$B5)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.10220983245904509</v>
       </c>
       <c r="F5">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$A5)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>95.172099552100306</v>
       </c>
       <c r="G5">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$B5)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0.32515153431908511</v>
       </c>
       <c r="H5">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$A5)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>86.929024471975794</v>
       </c>
       <c r="I5">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$B5)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.44575923713376997</v>
       </c>
       <c r="J5">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$A5)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>80.063394990264001</v>
       </c>
       <c r="K5">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$B5)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.50838688685656819</v>
       </c>
       <c r="L5">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$A5)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>70.723784293225293</v>
       </c>
       <c r="M5">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$B5)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.58200452941344505</v>
       </c>
     </row>
@@ -9078,43 +8933,43 @@
         <v>0.1</v>
       </c>
       <c r="D6">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$A6)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>102.643540931191</v>
       </c>
       <c r="E6">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$B6)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.10220983245904509</v>
       </c>
       <c r="F6">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$A6)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>95.172099552100306</v>
       </c>
       <c r="G6">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$B6)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0.32515153431908511</v>
       </c>
       <c r="H6">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$A6)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>86.929024471975794</v>
       </c>
       <c r="I6">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$B6)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.44575923713376997</v>
       </c>
       <c r="J6">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$A6)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>80.063394990264001</v>
       </c>
       <c r="K6">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$B6)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.50838688685656819</v>
       </c>
       <c r="L6">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$A6)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>70.723784293225293</v>
       </c>
       <c r="M6">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$B6)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.58200452941344505</v>
       </c>
     </row>
@@ -9129,43 +8984,43 @@
         <v>0.15</v>
       </c>
       <c r="D7">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$A7)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>102.643540931191</v>
       </c>
       <c r="E7">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$B7)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.10220983245904509</v>
       </c>
       <c r="F7">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$A7)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>95.172099552100306</v>
       </c>
       <c r="G7">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$B7)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0.32515153431908511</v>
       </c>
       <c r="H7">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$A7)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>86.929024471975794</v>
       </c>
       <c r="I7">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$B7)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.44575923713376997</v>
       </c>
       <c r="J7">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$A7)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>80.063394990264001</v>
       </c>
       <c r="K7">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$B7)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.50838688685656819</v>
       </c>
       <c r="L7">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$A7)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>70.723784293225293</v>
       </c>
       <c r="M7">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$B7)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.58200452941344505</v>
       </c>
     </row>
@@ -9180,43 +9035,43 @@
         <v>0.2</v>
       </c>
       <c r="D8">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$A8)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>102.643540931191</v>
       </c>
       <c r="E8">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$B8)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.10220983245904509</v>
       </c>
       <c r="F8">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$A8)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>95.172099552100306</v>
       </c>
       <c r="G8">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$B8)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0.32515153431908511</v>
       </c>
       <c r="H8">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$A8)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>86.929024471975794</v>
       </c>
       <c r="I8">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$B8)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.44575923713376997</v>
       </c>
       <c r="J8">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$A8)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>80.063394990264001</v>
       </c>
       <c r="K8">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$B8)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.50838688685656819</v>
       </c>
       <c r="L8">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$A8)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>70.723784293225293</v>
       </c>
       <c r="M8">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$B8)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.58200452941344505</v>
       </c>
     </row>
@@ -9231,43 +9086,43 @@
         <v>0.25</v>
       </c>
       <c r="D9">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$A9)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>102.643540931191</v>
       </c>
       <c r="E9">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$B9)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.10220983245904509</v>
       </c>
       <c r="F9">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$A9)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>95.172099552100306</v>
       </c>
       <c r="G9">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$B9)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0.32515153431908511</v>
       </c>
       <c r="H9">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$A9)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>86.929024471975794</v>
       </c>
       <c r="I9">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$B9)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.44575923713376997</v>
       </c>
       <c r="J9">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$A9)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>80.063394990264001</v>
       </c>
       <c r="K9">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$B9)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.50838688685656819</v>
       </c>
       <c r="L9">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$A9)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>70.723784293225293</v>
       </c>
       <c r="M9">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$B9)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.58200452941344505</v>
       </c>
     </row>
@@ -9282,43 +9137,43 @@
         <v>0.3</v>
       </c>
       <c r="D10">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$A10)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>102.643540931191</v>
       </c>
       <c r="E10">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$B10)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.10220983245904509</v>
       </c>
       <c r="F10">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$A10)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>95.172099552100306</v>
       </c>
       <c r="G10">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$B10)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0.32515153431908511</v>
       </c>
       <c r="H10">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$A10)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>86.929024471975794</v>
       </c>
       <c r="I10">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$B10)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.44575923713376997</v>
       </c>
       <c r="J10">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$A10)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>80.063394990264001</v>
       </c>
       <c r="K10">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$B10)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.50838688685656819</v>
       </c>
       <c r="L10">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$A10)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>70.5047953792931</v>
       </c>
       <c r="M10">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$B10)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.58200452941344505</v>
       </c>
     </row>
@@ -9333,43 +9188,43 @@
         <v>0.35</v>
       </c>
       <c r="D11">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$A11)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>102.643540931191</v>
       </c>
       <c r="E11">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$B11)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.10220983245904509</v>
       </c>
       <c r="F11">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$A11)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>95.172099552100306</v>
       </c>
       <c r="G11">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$B11)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0.32515153431908511</v>
       </c>
       <c r="H11">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$A11)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>87.478619685695705</v>
       </c>
       <c r="I11">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$B11)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.44575923713376997</v>
       </c>
       <c r="J11">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$A11)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>75.241254640621705</v>
       </c>
       <c r="K11">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$B11)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.50838688685656785</v>
       </c>
       <c r="L11">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$A11)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>70.5047953792931</v>
       </c>
       <c r="M11">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$B11)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.58200452941344505</v>
       </c>
     </row>
@@ -9384,43 +9239,43 @@
         <v>0.4</v>
       </c>
       <c r="D12">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$A12)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>102.643540931191</v>
       </c>
       <c r="E12">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$B12)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.10220983245904509</v>
       </c>
       <c r="F12">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$A12)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>95.093953467831398</v>
       </c>
       <c r="G12">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$B12)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0.32515153431908511</v>
       </c>
       <c r="H12">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$A12)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>87.478619685695705</v>
       </c>
       <c r="I12">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$B12)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.44575923713376997</v>
       </c>
       <c r="J12">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$A12)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>75.241254640621705</v>
       </c>
       <c r="K12">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$B12)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.50838688685656785</v>
       </c>
       <c r="L12">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$A12)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>70.5047953792931</v>
       </c>
       <c r="M12">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$B12)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.58200452941344505</v>
       </c>
     </row>
@@ -9435,43 +9290,43 @@
         <v>0.45</v>
       </c>
       <c r="D13">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$A13)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>102.643540931191</v>
       </c>
       <c r="E13">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$B13)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.10220983245904509</v>
       </c>
       <c r="F13">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$A13)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>95.093953467831398</v>
       </c>
       <c r="G13">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$B13)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0.32515153431908511</v>
       </c>
       <c r="H13">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$A13)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>87.478619685695705</v>
       </c>
       <c r="I13">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$B13)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.44575923713376997</v>
       </c>
       <c r="J13">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$A13)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>80.456400846950999</v>
       </c>
       <c r="K13">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$B13)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.50838688685656819</v>
       </c>
       <c r="L13">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$A13)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>70.613991932931896</v>
       </c>
       <c r="M13">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$B13)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.58200452941344505</v>
       </c>
     </row>
@@ -9486,43 +9341,43 @@
         <v>0.5</v>
       </c>
       <c r="D14">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$A14)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>102.643540931191</v>
       </c>
       <c r="E14">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$B14)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.10220983245904509</v>
       </c>
       <c r="F14">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$A14)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>94.633449094088903</v>
       </c>
       <c r="G14">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$B14)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0.32515153431908511</v>
       </c>
       <c r="H14">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$A14)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>86.800422441340402</v>
       </c>
       <c r="I14">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$B14)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.44575923713376997</v>
       </c>
       <c r="J14">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$A14)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>80.456400846950999</v>
       </c>
       <c r="K14">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$B14)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.50838688685656819</v>
       </c>
       <c r="L14">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$A14)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>70.613991932931896</v>
       </c>
       <c r="M14">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$B14)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.58200452941344505</v>
       </c>
     </row>
@@ -9537,43 +9392,43 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="D15">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$A15)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>102.643540931191</v>
       </c>
       <c r="E15">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$B15)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.10220983245904509</v>
       </c>
       <c r="F15">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$A15)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>89.800363988738098</v>
       </c>
       <c r="G15">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$B15)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0.32515153431908539</v>
       </c>
       <c r="H15">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$A15)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>86.800422441340402</v>
       </c>
       <c r="I15">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$B15)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.44575923713376997</v>
       </c>
       <c r="J15">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$A15)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>80.456400846950999</v>
       </c>
       <c r="K15">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$B15)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.50838688685656819</v>
       </c>
       <c r="L15">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$A15)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>71.903404909907493</v>
       </c>
       <c r="M15">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$B15)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.57883245756901436</v>
       </c>
     </row>
@@ -9588,43 +9443,43 @@
         <v>0.6</v>
       </c>
       <c r="D16">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$A16)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>102.643540931191</v>
       </c>
       <c r="E16">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$B16)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.10220983245904509</v>
       </c>
       <c r="F16">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$A16)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>95.093953467831398</v>
       </c>
       <c r="G16">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$B16)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0.32515153431908511</v>
       </c>
       <c r="H16">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$A16)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>86.800422441340402</v>
       </c>
       <c r="I16">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$B16)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.44575923713376997</v>
       </c>
       <c r="J16">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$A16)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>80.456400846950999</v>
       </c>
       <c r="K16">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$B16)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.50838688685656819</v>
       </c>
       <c r="L16">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$A16)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>78.440078083535496</v>
       </c>
       <c r="M16">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$B16)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.55776866549984672</v>
       </c>
     </row>
@@ -9639,43 +9494,43 @@
         <v>0.65</v>
       </c>
       <c r="D17">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$A17)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>102.643540931191</v>
       </c>
       <c r="E17">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$B17)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.10220983245904509</v>
       </c>
       <c r="F17">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$A17)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>89.800363988738098</v>
       </c>
       <c r="G17">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$B17)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0.32515153431908539</v>
       </c>
       <c r="H17">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$A17)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>86.800422441340402</v>
       </c>
       <c r="I17">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$B17)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.44575923713376997</v>
       </c>
       <c r="J17">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$A17)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>81.213627243787997</v>
       </c>
       <c r="K17">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$B17)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.50568523076112648</v>
       </c>
       <c r="L17">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$A17)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>109.319570087849</v>
       </c>
       <c r="M17">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$B17)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.53963091869314661</v>
       </c>
     </row>
@@ -9690,43 +9545,43 @@
         <v>0.7</v>
       </c>
       <c r="D18">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$A18)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>102.643540931191</v>
       </c>
       <c r="E18">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$B18)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.10220983245904509</v>
       </c>
       <c r="F18">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$A18)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>94.633449094088903</v>
       </c>
       <c r="G18">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$B18)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0.32515153431908511</v>
       </c>
       <c r="H18">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$A18)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>86.800422441340402</v>
       </c>
       <c r="I18">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$B18)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.44575923713376997</v>
       </c>
       <c r="J18">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$A18)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>87.460829339463999</v>
       </c>
       <c r="K18">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$B18)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.44633282257415319</v>
       </c>
       <c r="L18">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$A18)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>109.30568084136399</v>
       </c>
       <c r="M18">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$B18)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.53963091869314661</v>
       </c>
     </row>
@@ -9741,43 +9596,43 @@
         <v>0.75</v>
       </c>
       <c r="D19">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$A19)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>102.643540931191</v>
       </c>
       <c r="E19">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$B19)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.10220983245904509</v>
       </c>
       <c r="F19">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$A19)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>94.549998412493906</v>
       </c>
       <c r="G19">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$B19)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0.32515153431908511</v>
       </c>
       <c r="H19">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$A19)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>87.322030328662805</v>
       </c>
       <c r="I19">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$B19)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.44575923713377025</v>
       </c>
       <c r="J19">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$A19)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>93.7080314351401</v>
       </c>
       <c r="K19">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$B19)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.39189592856032357</v>
       </c>
       <c r="L19">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$A19)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>109.366367084589</v>
       </c>
       <c r="M19">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$B19)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.53963091869314661</v>
       </c>
     </row>
@@ -9792,43 +9647,43 @@
         <v>0.8</v>
       </c>
       <c r="D20">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$A20)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>102.643540931191</v>
       </c>
       <c r="E20">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$B20)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.10220983245904509</v>
       </c>
       <c r="F20">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$A20)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>94.549998412493906</v>
       </c>
       <c r="G20">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$B20)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0.32515153431908511</v>
       </c>
       <c r="H20">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$A20)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>92.757263197783303</v>
       </c>
       <c r="I20">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$B20)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.38984128581783106</v>
       </c>
       <c r="J20">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$A20)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>116.238799738461</v>
       </c>
       <c r="K20">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$B20)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.33664187165554066</v>
       </c>
       <c r="L20">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$A20)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>109.366367084589</v>
       </c>
       <c r="M20">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$B20)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.53963091869314661</v>
       </c>
     </row>
@@ -9843,43 +9698,43 @@
         <v>0.85</v>
       </c>
       <c r="D21">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$A21)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>102.643540931191</v>
       </c>
       <c r="E21">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$B21)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.10220983245904509</v>
       </c>
       <c r="F21">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$A21)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>95.111413308875797</v>
       </c>
       <c r="G21">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$B21)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0.32515153431908311</v>
       </c>
       <c r="H21">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$A21)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>98.554592147644797</v>
       </c>
       <c r="I21">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$B21)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.35889034830686856</v>
       </c>
       <c r="J21">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$A21)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>116.218250258797</v>
       </c>
       <c r="K21">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$B21)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.33664187165554066</v>
       </c>
       <c r="L21">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$A21)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>111.123443951675</v>
       </c>
       <c r="M21">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$B21)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.52790102091784963</v>
       </c>
     </row>
@@ -9894,43 +9749,43 @@
         <v>0.9</v>
       </c>
       <c r="D22">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$A22)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>102.643540931191</v>
       </c>
       <c r="E22">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$B22)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.10220983245904509</v>
       </c>
       <c r="F22">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$A22)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>100.662380786407</v>
       </c>
       <c r="G22">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$B22)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0.27158133319991318</v>
       </c>
       <c r="H22">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$A22)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>104.35192109750599</v>
       </c>
       <c r="I22">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$B22)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.24990077191104021</v>
       </c>
       <c r="J22">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$A22)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>116.2319965663</v>
       </c>
       <c r="K22">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$B22)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.33664187165554066</v>
       </c>
       <c r="L22">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$A22)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>117.660117125303</v>
       </c>
       <c r="M22">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$B22)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.47215261746362625</v>
       </c>
     </row>
@@ -9945,43 +9800,43 @@
         <v>0.95</v>
       </c>
       <c r="D23">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$A23)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>102.643540931191</v>
       </c>
       <c r="E23">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$B23)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.10220983245904509</v>
       </c>
       <c r="F23">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$A23)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>106.25473527454</v>
       </c>
       <c r="G23">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$B23)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>9.9939625971644033E-2</v>
       </c>
       <c r="H23">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$A23)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>110.345180048668</v>
       </c>
       <c r="I23">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$B23)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.22009497315967455</v>
       </c>
       <c r="J23">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$A23)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>118.69683981784399</v>
       </c>
       <c r="K23">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$B23)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.31492868562038562</v>
       </c>
       <c r="L23">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$A23)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>124.19679029893101</v>
       </c>
       <c r="M23">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$B23)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.26910799987356043</v>
       </c>
     </row>
@@ -9996,43 +9851,43 @@
         <v>38</v>
       </c>
       <c r="D24">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$A24)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>104.152894045241</v>
       </c>
       <c r="E24">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$B24)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F24">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$A24)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>111.847089762674</v>
       </c>
       <c r="G24">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$B24)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H24">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$A24)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>115.946578997229</v>
       </c>
       <c r="I24">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$B24)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J24">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$A24)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>124.94404191352</v>
       </c>
       <c r="K24">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$B24)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="L24">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$A24)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>130.73346347255901</v>
       </c>
       <c r="M24">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$B24)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>

--- a/results/mop/pareto_over_cap.xlsx
+++ b/results/mop/pareto_over_cap.xlsx
@@ -4228,7 +4228,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A3B037F1-9A21-4C93-BCDD-BCFB0556A011}" type="CELLRANGE">
+                    <a:fld id="{89ED1DB7-CF3F-4DCB-9533-7D14EAC66D3F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4447,7 +4447,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B01AF05F-E115-49FB-AA38-53A70B80B825}" type="CELLRANGE">
+                    <a:fld id="{38485F35-DCFB-47DE-B219-2A6357FA0A67}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4998,7 +4998,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1FC4038C-AF36-4171-8E0D-A9B95CE1DA1A}" type="CELLRANGE">
+                    <a:fld id="{B14E6A28-5574-4BFA-9A20-3FA05A150660}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5038,7 +5038,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{23DE3AF3-50CD-4A7E-820E-90522B0E647A}" type="CELLRANGE">
+                    <a:fld id="{5F1D846E-D47B-43CC-9E16-2FCFF2109159}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5078,7 +5078,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{127B1F91-E873-43A0-A88A-54899BEC19BD}" type="CELLRANGE">
+                    <a:fld id="{10B412A6-C731-456F-998A-47E9D893D36A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5435,7 +5435,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{42892778-72A8-42F4-ADE8-EA31E98D1CD8}" type="CELLRANGE">
+                    <a:fld id="{046754F1-A468-4909-A503-0EBF13A6D68F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5616,7 +5616,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{938F0898-E0A4-47B2-8906-CC67F4012992}" type="CELLRANGE">
+                    <a:fld id="{D74A74EA-7056-40E1-B881-78BEB63C944D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5657,7 +5657,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4E36648C-E6F7-43C9-AF6B-6682FADDBF9D}" type="CELLRANGE">
+                    <a:fld id="{7F5CE0C7-774E-4DE3-9BC1-9BA97342707F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5698,7 +5698,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{11B0ED0F-C788-49DE-8B15-828775657C76}" type="CELLRANGE">
+                    <a:fld id="{AA5C2F15-210F-4AA8-993C-E90946767AF2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5739,7 +5739,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8B097EE8-4ACD-4153-A789-1940F6C40289}" type="CELLRANGE">
+                    <a:fld id="{D5CD74AC-96F7-49DB-BAFB-A76E485D644E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5780,7 +5780,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6170AB4C-5B4D-409E-AD07-EC2E6F73B9D0}" type="CELLRANGE">
+                    <a:fld id="{459CD8B2-CAB2-47B6-A171-3CAE7EAF078E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6294,7 +6294,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7FA8975B-0D18-4324-95F4-40BC2349C354}" type="CELLRANGE">
+                    <a:fld id="{00769B4B-9398-4EC0-BD8F-B6FEEE16F7F3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6333,7 +6333,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F6590496-29A3-4EC4-9D31-66DF525B3A83}" type="CELLRANGE">
+                    <a:fld id="{5699BAEC-4870-45C5-8636-FA26C2B7DE33}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6372,7 +6372,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0C9A69A7-3AD9-4D05-9CE6-57ACE57D241D}" type="CELLRANGE">
+                    <a:fld id="{D3AD7353-D0E5-440A-8BA2-B44613439F43}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6411,7 +6411,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{67F2A2B4-65BE-470B-A759-DF2AA7DD79FC}" type="CELLRANGE">
+                    <a:fld id="{EF56D86C-41B9-4775-BA7D-4293924D4C20}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6470,7 +6470,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{81B61668-F241-4738-B9B5-8F44AC5E3C48}" type="CELLRANGE">
+                    <a:fld id="{5592CC34-6223-4F18-A8D7-3B6D3518A976}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6827,7 +6827,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{58CAB29B-FF52-4F2E-BB4B-6D2A031E6FE2}" type="CELLRANGE">
+                    <a:fld id="{1C49D8AC-2FC0-4C48-BFA1-B6443E3CB5B2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6967,7 +6967,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5A17BD44-687A-4CE5-ADBF-1A8EB500CD12}" type="CELLRANGE">
+                    <a:fld id="{BA68F021-72A1-4B4C-AE94-C2D5F95EDE44}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7007,7 +7007,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BAC4FAAD-54A7-4C1C-B2EF-E38015B18531}" type="CELLRANGE">
+                    <a:fld id="{D14CC62B-1A2F-4730-8B42-C55F2BDA108D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7047,7 +7047,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AFC14A1D-0DBC-4CEC-A7C4-5334EEE59A4D}" type="CELLRANGE">
+                    <a:fld id="{EA5B0821-D5A6-4238-B2CE-818370B1671C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7117,7 +7117,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{35314626-2BB0-44E7-9512-132E73466EE1}" type="CELLRANGE">
+                    <a:fld id="{7322BF38-BBBB-4FAF-9FB2-A0713C975774}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7157,7 +7157,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ED0F145E-9166-4A99-BEC3-9364C17905FE}" type="CELLRANGE">
+                    <a:fld id="{85A2FDB2-3F32-480D-9411-9AD4BBC0E224}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7197,7 +7197,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9F27EFED-5FCC-42F0-9C8F-D1A6F737AF76}" type="CELLRANGE">
+                    <a:fld id="{BAC66E54-946B-4CCD-91A0-1C28A0F03706}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
